--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\leipzig-map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\leipzig-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3154B5-1757-4C73-88C6-F69E035BE935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8330DA6-5A09-4D47-8383-4F2790D61B96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>Thomaskirche</t>
   </si>
@@ -46,9 +46,6 @@
     <t>picture</t>
   </si>
   <si>
-    <t>https://s3.eu-central-1.amazonaws.com/static-2.malisto/customer/8eq69geq6890/full/1127548.jpg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/0/0d/Bundesarchiv_Bild_183-B1119-0007-001%2C_Leipzig%2C_Petersstra%C3%9Fe%2C_Kino_%22Capitol%22.jpg</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Konsumzentrale</t>
   </si>
   <si>
-    <t>Quelle:</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/8/8c/Industriestra%C3%9Fe_85%3B_95-01.jpg</t>
   </si>
   <si>
@@ -76,24 +70,12 @@
     <t>Georg-Maurer-Bibliothek</t>
   </si>
   <si>
-    <t>1929 eingeweihte Stadtteilbibliothek, die vornehmlich der Arbeiterbildung dienen sollte, Gründungsbestand von 19.000 Bänden. Georg Maurer (+1971), Lyriker und Dichter.</t>
-  </si>
-  <si>
     <t>Felsenkeller</t>
   </si>
   <si>
-    <t>1890 errichtet, urspr. als bürgerliches Konzert- und Ballhaus geplant, zu Beginn des 20. Jh. jedoch vermehrt Arbeitertreffpunkt, mit Auftritten von Karl Liebknecht (1905), Rosa Luxemburg (1913) und Clara Zetkin (1920).</t>
-  </si>
-  <si>
     <t>Erich-Zeigner-Haus</t>
   </si>
   <si>
-    <t>Errichtet um 1860, seit 1927 das Wohnhaus Erich Zeigners</t>
-  </si>
-  <si>
-    <t>Errichtet 1929-1932. Die Wurzelnd des Konsumvereins Leipzig reichen bis ins Jahr 1848 zurück, der Erste dauerhafte Verein wurde 1884 in Plagwitz gegründet. Erste Läden befanden sich in der Plagwitzer Bahnhofsstraße und in Kleinzschocher.</t>
-  </si>
-  <si>
     <t>Arbeiter-, Turn- und Sportschule</t>
   </si>
   <si>
@@ -115,45 +97,24 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/2/2f/Bezirksgericht_Leipzig.jpg</t>
   </si>
   <si>
-    <t>Königl. Sächs. Bezirksgericht</t>
-  </si>
-  <si>
-    <t>Anmerkung PT</t>
-  </si>
-  <si>
-    <t>Beschreibung sind nur Stichpunkte in Google Earth; Namen vllt ausschreiben?</t>
-  </si>
-  <si>
     <t>Schreberverein</t>
   </si>
   <si>
-    <t xml:space="preserve">1864 Gründungsort des ersten "Schrebervereins" durch den Pädagogen Ernst Hauschild. Zunächst primär als Kinderspiel- und Turnplatz gedacht, kam schnell die gärtnerische Nutzung der Flächen hinzu (maßgeblich hierfür war die Initiative von Karl Gesell). Das historische Vereinshaus wurde am 4.10.1896 eingeweiht. Die Parzellen weisen zum großen Teil noch die historischen Abmessungen auf und ein Teil der Anlage wird museal genutzt ("Deutsches Kleingärtnermuseum"). </t>
-  </si>
-  <si>
     <t>http://www.schreber-leipzig.de/images/Historie/Vereinshaus/Bauzeichnung.jpg</t>
   </si>
   <si>
     <t>Odeon</t>
   </si>
   <si>
-    <t>Veranstaltungsgebäude in der Westvorstadt, dass bis 1943 bestand. Hier fand 1848 die Gründung des sächsischen Landesverbands der Arbeitervereine statt. Zwischen 1873 und 1878 wurde der Ort viel durch den Leipziger Arbeiterbilduingsverein genutzt, der hier auch seine jährlichen Stiftungsfeste abhielt. 1895 Umbenennung in "Sanssouci-Festsäle". Zerstörung am 4.12.1943.</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/5/58/Odeon_Leipzig.jpg</t>
   </si>
   <si>
-    <t>Runde Ecke</t>
-  </si>
-  <si>
     <t>Hotel de Saxe</t>
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/f/f5/Schellhaferhaus.jpg</t>
   </si>
   <si>
-    <t>Beschreibung sind nur Stichpunkte in Google Earth</t>
-  </si>
-  <si>
     <t>Reformierte Kirche</t>
   </si>
   <si>
@@ -166,12 +127,6 @@
     <t>Wohnhaus Auguste Schmidt</t>
   </si>
   <si>
-    <t xml:space="preserve">Im Haus Lortzingstraße 5 wohnte 1863/64 die Frauenrechtlerin Auguste Schmidt, die in Leipzig, die 1861 bis zu ihrem Tod 1902 in Leipzi wirkte. Im Haus traf sie sich jeden Freitag mit der Schriftstellerin Louise Otto-Peters und es wurde die 1865 vollzogene Gründung des Frauenbildungsvereins (gemeinsam mit Henriette Goldschmidt) vorbereitet. </t>
-  </si>
-  <si>
-    <t>https://www.l-iz.de/wp-content/uploads/2022/05/AS_Inschrift_5-klein-Foto-G.Kaemmerer-1070x713.jpg.webp</t>
-  </si>
-  <si>
     <t>Blaue Mütze</t>
   </si>
   <si>
@@ -199,31 +154,118 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/AHW_Europahaus_Leipzig_1930.jpg/800px-AHW_Europahaus_Leipzig_1930.jpg</t>
   </si>
   <si>
-    <t>ehem. Auguste-Schmidt-Haus</t>
-  </si>
-  <si>
     <t>Richard-Lipinski-Haus</t>
   </si>
   <si>
-    <t xml:space="preserve">Rosa-Luxemburg-Straße 19/21. Das Gebäude in der heutigen Rosa-Luxemburg-Straße 19/21 wurde 1910 errichtet. Hier wurde von 1910 bis 1933 die "Leipziger Volkszeitung" herausgegeben die zu jener Zeit eine der führenden deutschen Tageszwitungen der Arbeiterbewegung war. Bei der LVZ wirkten neben Lipinski auch Rosa Luxemburg und Clara Zetkin. Ab 1911 befand sich hier bis zur Gleichschaltung auch der Sitz des SPD-Bezirkssekretariats. </t>
-  </si>
-  <si>
-    <t>https://www.architektur-blicklicht.de/bilder/industriebauten/leipzig-richard-lipinski-haus-leipziger-buchdruckerei-graphisches-viertel-686x600.jpg</t>
-  </si>
-  <si>
     <t>Pantheon</t>
   </si>
   <si>
     <t xml:space="preserve">Auf dem Gelände der heutigen Dresdner Straße 20 befand sich das 1838 errichtete Gasthaus "Colosseum", das 1863 in "Pantheon" umbenannt wurde. 1848 wurde hier durch Auguste Schmidt der "Verein der Dienstmädchen" als erste Frauen-Berufsorganisation gegründet. Am 23.05.1863 fand hier die Gründung des Allgemeinen Deutschen Arbeitervereins (ADAV) durch Ferdinand Lassalle und Arbeitervertreter aus 12 deutschen Städten statt. Somit zählt der Ort neben dem Goldenen Löwen in Eisenach und dem Tivoli in Gotha zu den drei Gründungsorten der deutschen Sozialdemokratie. Hier traten u. a. August Bebel (1891), Clara Zetkin (1893), Wilhelm Liebknecht (1893) und Karl Liebknecht (1900) als Redner auf, Clara Zetkin sprach hier über "Die Frauen des Proletariats und der Militarismus". Zudem wurde hier 1891 die erste offizielle Leipziger Maifeier initiiert. 1918/19 wurde in dem Gebäude ein Kino eingerichtet (UT Dresdner Straße). 1933 wurde der Versammlungssaal, 1977 auch das Vorderhaus abgerissen. Heute erinnert nur ein 2013 verlegter Gedenkstein an die Bedeutung des Ortes. </t>
   </si>
   <si>
-    <t>https://erinnerungsorte.fes.de/wp-content/gallery/lasalle/2-leipzig_pantheon_adav-gruendung_fb005673.jpg</t>
-  </si>
-  <si>
-    <t>Gasthof Zur Grünen Linde Oetzsch</t>
-  </si>
-  <si>
-    <t>Heute Markkleeberger Rathaus (1921), im 19. Jh. beliebtes Ausflugslokal, 1890 Zusammenkunft zur ersten Maifeier der Leipziger Sozialdemokratie.</t>
+    <t>Am 28.10.1900 eröffnet (heute Zschocherschen Straße 41a). Eines der anschaulichsten Beispiele für die zahlreichen Warenhäuser des Consum-Vereins, die sich zu Beginn des 20. Jh. über die gesamte Stadt verteilten.</t>
+  </si>
+  <si>
+    <t>In diesem um 1860 errichteten Wohnhaus mit Garten wohnte seit 1909 die Familie Zeigner. Nach der Scheidung seiner ersten Ehe zog Erich Zeigner wieder in die Wohnung seiner Eltern, die sich im Erdgeschoss links des Wohnungseingangs befand. Anlässlich seiner Einsetzung als Leipziger Oberbürgermeister 1945 wurde das gesamte Erdgeschoss zu seiner Wohnung um- und ausgebaut. Nach seinem frühen Tod 1949 wurde die originale Wohnungseinrichtung durch seine zweite Ehefrau Annemarie weitestgehend bewahrt. Seine Sekretärin Johanna Landgraf wohnte noch bis zu ihrem Tod 2012 im Haus. Heute wird das Haus durch den Erich-Zeigner-Verein für politische Bildungsveranstaltungen genutzt.</t>
+  </si>
+  <si>
+    <t>Die 1929 eingeweihte, im Bauhausstil errichtete "IV. Städtische Bücherhalle" ist ein Beispiel fürdie zahlreichen, in diesme Zeitraum entstandenen Stadtteilbibliotheken, die vornehmlich der Arbeiterbildung dienen sollten. Der Gründungsbestand umfasste ca. 19.000 Bände. Zu DDR-Zeiten wurde sie nach dem 1971 verstorbenen Lyriker Georg Maurer umbenannt.</t>
+  </si>
+  <si>
+    <t>Der Felsenkeller wurde 1890 als prächtiges, neobarlockes Ausflugslokal errichtet. Ursprünglich Konzert- und Ballhaus für eher bürgerliches Klientel geplant, entwickelte er sich zu Beginn des 20. Jh. jedoch vermehrt zu einem bedeutenden Arbeitertreffpunkt, mit Auftritten von Karl Liebknecht (1905), Rosa Luxemburg (1913) und Clara Zetkin (1920), während das Leipziger Bürgertum weiterhin das Ausflugslokal am Palmengarten bevorzugte. Hier wurde auf einem Bezirksparteitag der Leipziger SPD am 30.03.1946 die Vereinigung mit der KPD beschlossen, die einen Tag später im Kino Capitol vollzogen wurde.</t>
+  </si>
+  <si>
+    <t>Die Ideen zur Gründung eines genossenschaftlichen Konsumvereins in Leipzig reichen bereits bis ins Jahr 1848 zurück, der erste dauerhafte Verein wurde 1884 in Plagwitz gegründet. 1889 wurde hier die erste Genossenschaftszentrale errichtet und der Verein wuchs immer weiter an. 1898 betrieb er bereits 24 Verkaufsstellen in der gesamten Stadt. Das heutige Gebäude wurde 19229-1932 durch Fritz Höger errichtet und gilt als bedeutendes Werk des Backsteinexpressionismus.</t>
+  </si>
+  <si>
+    <t>Im 1860 errichteten Königlich Sächsischen Bezirksgericht fand 1872 der Hochverratsprozess gegen August Bebel, Wilhelm Liebknecht und den "Volksstaat"-Redakteur Adolf Hepner statt. Das Urteil wurde am 26.03. gefällt: Hepner wurde freigesprochen, Bebel und Liebknecht zu jeweils zwei Jahren Festungshaft in Hubertusburg verurteilt.</t>
+  </si>
+  <si>
+    <t>1864 befand sich auf diesem Gelände in der Aachener Straße 7 der Gründungsort des durch den Pädagogen Ernst Hauschild initiierten ersten "Schrebervereins". Zunächst primär als Kinderspiel- und Turnplatz gedacht, kam schnell die gärtnerische Nutzung der Flächen hinzu - maßgeblich hierfür war die Initiative des Pädagogen Karl Gesell. Das historische Vereinshaus wurde am 4.10.1896 eingeweiht. Die Parzellen weisen zum großen Teil noch die historischen Abmessungen auf und ein Teil der Anlage wird museal genutzt ("Deutsches Kleingärtnermuseum").</t>
+  </si>
+  <si>
+    <t>Auf dem Grundstück Elsterstraße 12 befand sich im 19. Jh. das Odeon, ein beliebtes Veranstaltungsgebäude in der Westvorstadt. Hier fand 1848 die Gründung des sächsischen Landesverbands der Arbeitervereine statt. Zudem wurde hier am 24. 03.1863 die Gründung des ADAV kurze Zeit später durch die Wahl des Gründungskommitees vorbereitet. Zwischen 1873 und 1878 wurde der Ort viel durch den Leipziger Arbeiterbildungsverein genutzt, der hier auch seine jährlichen Stiftungsfeste abhielt. 1895 fand die Umbenennung in "Sanssouci-Festsäle" statt. 1943 wurde das Gebäude zerstört.</t>
+  </si>
+  <si>
+    <t>In der heutigen Klostergasse 9 wurde 1711 das Stadthaus der Handelsfamilie Schellhafer errichtet. 1776 wurde hier das "Hôtel de Saxe" eingerichtet, das sich bereits zu Ende des 18. Jahrhunderts zu einem wichtigen Zentrzum des Leipziger Kultur- und Musiklebens entwickelte. 1859 übernahm der Teilnehmer der '48er-Revolution Ludwig Würkert den Gasthof und etablierte hier die „Restauration für Volksbildung, Volksveredlung und Volksermutigung." Hier wurden wöchentlich Vortragsabende abgehalten, die Zeitschrift "Vorwärts" herausgegeben, wodurch das Lokal zu einem Zentrum der frühen Arbeiterbewegung wurde. 1909 wurde der Betrieb der Wirtschaft eingestellt. Das im Krieg zerstörte Gebäude wurde 1968 abgebrochen, eine Kopie des alten Portals existiert noch heute vor Ort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Gebäude in der heutigen Rosa-Luxemburg-Straße 19/21 wurde 1910 errichtet. Hier wurde von 1910 bis 1933 die "Leipziger Volkszeitung" herausgegeben die zu jener Zeit eine der führenden deutschen Tageszwitungen der Arbeiterbewegung war. Bei der LVZ wirkten neben Lipinski auch Rosa Luxemburg und Clara Zetkin. Ab 1911 befand sich hier bis zur Gleichschaltung auch der Sitz des SPD-Bezirkssekretariats. Zu DDR-Zeiten befand sich hier eine Lenin-Gedenkstätte, heute hat hier die Leipziger SPD ihre Geschäftsstelle. </t>
+  </si>
+  <si>
+    <t>Genossenschafts-Buchdruckerei</t>
+  </si>
+  <si>
+    <t>Der Sitz der 182 gegründeten Genossenschafts-Buchdruckerei wurde 1876 von einem Gebäude in der heutigen Karl-Liebknecht-Straße in die Färberstraße verlegt. Hier wurde u. a. die Parteizeitung "Der Volksstaat" (1877 Umbenennung in "Vorwärts") gedruckt.Der Betrieb verfügte über vier Schnellpressen und 25 Mitarbeiter. Bereis 1881 wurde die Genossenschaft liquidiert.</t>
+  </si>
+  <si>
+    <t>Münzblock</t>
+  </si>
+  <si>
+    <t>An dieser Stelle befand sich das Wirtschaftslokal am Petersschießgraben, wo 1849 das erste Leipziger Arbeiterheim (der Vorläufer des Volkshauses) eingerichtet wurde. Bereits wenige Monate später wurden die Arbeiter-Aktivitäten im Haus verboten und das Heim aufgelöst. Das Gebäude wurde 1865 abgerissen und an seiner Stelle der jetzige Bau im Stil des Historismus errichtet, wo sich seitdem immer wieder populäre Gastronomieeinrichtungen ansiedelten.</t>
+  </si>
+  <si>
+    <t>Clara-Zetkin-Denkmal</t>
+  </si>
+  <si>
+    <t>Das Clara-Zetkin-Denkmal wurde am 3. Juli 1967 anlässlich des 110. Geburtstages der jüdischen Politikerin enthüllt. Der Entwurf zum Bronzestandbild stammt von dem Leipziger Bildhauer Walter Arnold. An gleicher Stelle befand sich bis 1946 ein Denkmal Bismarcks aus der Gründerzeit. Die bedeutende Sozialdemokratin und Frauenrechtlerin hatte hier in Leipzig eine ihrer frühesten Wirkungsstätten.</t>
+  </si>
+  <si>
+    <t>Königliches Bezirksgericht</t>
+  </si>
+  <si>
+    <t>Liebknecht-Haus</t>
+  </si>
+  <si>
+    <t>Im Haus mit der heutigen Adresse Braustraße 15 wurde am 13. August wohnte 1867-1881 Wilhelm Liebknecht mit seiner Familie. Sein Sohn Karl wurde hier am 13. August 1871 geboren. Das Haus entwickelte sich in den 1870er Jahren zu einem wichtigen Zentrum der Sozialdemokratie. Hier wurde die Zeitschrift "Volksstaat" herausgegeben und Karl Marx stattete dem Haus 1874 einen Besuch ab. Erst später wurde das Gebäude um zwei Etagen aufgestockt. Heute befindet sich hier die Geschäftsstelle des Leipziger Stadtverbandes von "DIE LINKE".</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fe/Leipzig_-_Thomaskirchhof_-_Thomaskirche_in_04_ies.jpg/800px-Leipzig_-_Thomaskirchhof_-_Thomaskirche_in_04_ies.jpg?20171126065854</t>
+  </si>
+  <si>
+    <t>eigene Aufnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Haus Lortzingstraße 5 wohnte 1863/64 die Frauenrechtlerin Auguste Schmidt, die in Leipzig, die 1861 bis zu ihrem Tod 1902 in Leipzig wirkte. Im Haus traf sie sich jeden Freitag mit der Schriftstellerin Louise Otto-Peters und es wurde die 1865 vollzogene Gründung des Frauenbildungsvereins (gemeinsam mit Henriette Goldschmidt) vorbereitet. </t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/de/2/2e/Ballsaal_Pantheon_Leipzig.jpg</t>
+  </si>
+  <si>
+    <t>Quelle: wikimedia.org</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/61/Auguste_Schmidts_Haus.jpg/398px-Auguste_Schmidts_Haus.jpg?20130203091503</t>
+  </si>
+  <si>
+    <t>Quelle: F. Meißner</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8b/Petersschie%C3%9Fgraben_Leipzig.jpg/800px-Petersschie%C3%9Fgraben_Leipzig.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Clara-Zetkin-Denkmal_Leipzig.jpg/450px-Clara-Zetkin-Denkmal_Leipzig.jpg?20121219221301</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/cf/Fotothek_df_roe-neg_0006216_009_Geburtshaus_Karl_Liebknechts_in_der_Braustra%C3%9Fe_1.jpg</t>
+  </si>
+  <si>
+    <t>Fritzsche-Wohnhaus</t>
+  </si>
+  <si>
+    <t>In diesem Haus in der heutigen Karl-Liebknecht-Straße 62 (Cafe Maitre) wohnte 1879-1881 der  Lyriker und Sozialdemokrat Friedrich Wilhelm Fritzsche. Als Gründer des Allgemeinden Deutschen Cigarrenarbeiter-Vereins im Jahr 1865 ist er eine wichtige Gründungsfigur des Gewerkschaftswesens und beteiligte sich 1863 auch an der Gründung des ADAV.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/67/Friedrich_Wilhelm_Fritzsche_Gedenktafel_in_Leipzig_Karl-Liebknecht-Stra%C3%9Fe_62.JPG/800px-Friedrich_Wilhelm_Fritzsche_Gedenktafel_in_Leipzig_Karl-Liebknecht-Stra%C3%9Fe_62.JPG</t>
+  </si>
+  <si>
+    <t>source_ind</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>privat</t>
   </si>
 </sst>
 </file>
@@ -247,24 +289,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,15 +310,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,508 +628,644 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="174" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="174" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.88671875" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51.339237199999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12.3757456</v>
-      </c>
-      <c r="D2" t="s">
+        <v>51.202167000000003</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12.222161</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>51.338879599999999</v>
-      </c>
-      <c r="C3">
-        <v>12.3744023</v>
-      </c>
-      <c r="D3" t="s">
+        <v>51.201996999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>12.222785</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4">
+        <v>51.194093000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12.194787</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>51.328572600000001</v>
-      </c>
-      <c r="C4">
-        <v>12.331050899999999</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5">
+        <v>51194779</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12.201489</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>5120091</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12.202067</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>51.195771000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12.201846</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>51.195843000000004</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12.20213</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>51.19171</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12.223189</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>51.193821</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12.2224</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>51.330156500000001</v>
-      </c>
-      <c r="C5">
-        <v>12.337664800000001</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>51.3335911</v>
-      </c>
-      <c r="C6">
-        <v>12.3393137</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>51.332988299999997</v>
-      </c>
-      <c r="C7">
-        <v>12.337859999999999</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>51.332929900000003</v>
-      </c>
-      <c r="C8">
-        <v>12.3397963</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>51.195889999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>12.222624</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>51.317073200000003</v>
-      </c>
-      <c r="C9">
-        <v>12.3754904</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="B12">
+        <v>51.202159000000002</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12.212476000000001</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>51.327552400000002</v>
-      </c>
-      <c r="C10">
-        <v>12.373935700000001</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B13">
+        <v>51.202258</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12.215835999999999</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B14">
+        <v>51.202688999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12.222358</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>51.329644799999997</v>
-      </c>
-      <c r="C11">
-        <v>12.3746399</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B15">
+        <v>51.20411</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12.222419</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>51.339290499999997</v>
-      </c>
-      <c r="C12">
-        <v>12.3581936</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B16">
+        <v>51.204341999999997</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12.221363</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="B17">
+        <v>51.204410000000003</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12.221439999999999</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13">
-        <v>51.339855</v>
-      </c>
-      <c r="C13">
-        <v>12.3674306</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="B18">
+        <v>51.202582</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12.224629999999999</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14">
-        <v>51.342100700000003</v>
-      </c>
-      <c r="C14">
-        <v>12.3711726</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B15">
-        <v>51.340958200000003</v>
-      </c>
-      <c r="C15">
-        <v>12.373424</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2" t="s">
+      <c r="B19">
+        <v>51.201497000000003</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12.225390000000001</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B16">
-        <v>51.344570400000002</v>
-      </c>
-      <c r="C16">
-        <v>12.374700900000001</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B20">
+        <v>51.2042</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12.232647</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="B21">
+        <v>51.202001000000003</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12.23372</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17">
-        <v>51.3451278</v>
-      </c>
-      <c r="C17">
-        <v>12.3709808</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>51.344601400000002</v>
-      </c>
-      <c r="C18">
-        <v>12.3710349</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
-        <v>51.3404673</v>
-      </c>
-      <c r="C19">
-        <v>12.379617700000001</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>51.337847600000003</v>
-      </c>
-      <c r="C20">
-        <v>12.3814378</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="B22">
+        <v>51.204222999999999</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12.215728</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="B21">
-        <v>51.338947599999997</v>
-      </c>
-      <c r="C21">
-        <v>12.3899042</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23">
+        <v>51.195722000000004</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12.222416000000001</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22">
-        <v>51.345033000000001</v>
-      </c>
-      <c r="C22">
-        <v>12.3906513</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="B24">
+        <v>51.195917000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12.214267</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23">
-        <v>51.3390968</v>
-      </c>
-      <c r="C23">
-        <v>12.393767499999999</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="B25">
+        <v>51.193671999999999</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12.221743999999999</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24">
-        <v>51.280630100000003</v>
-      </c>
-      <c r="C24">
-        <v>12.377634</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>51.192393000000003</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12.222356</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{CE6AA85E-C1EA-48DE-A9B4-81250D8142D1}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{EFE24946-3D8A-4D16-94C8-E51E7137A469}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{E50FD1F7-A36D-41E1-BA13-53B1B8A37ED5}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{D23F7A00-BFCD-450E-AB01-82F15EAEA9FD}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{8233C067-EEAF-4668-AF47-1BF847C00C3C}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{F166413B-F7F6-4E31-87F2-E10F35192E3A}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{C9C162EC-8562-4E4D-9CB1-576F8A12A999}"/>
-    <hyperlink ref="E12" r:id="rId8" xr:uid="{E6029735-A0BB-43CE-8632-313577FD11D5}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{9A6B2AEF-BBCB-4C88-9045-31DE22383A3E}"/>
-    <hyperlink ref="E15" r:id="rId10" xr:uid="{47DBF7FB-3B4A-4BF6-AFA0-5EC3FC6CCE13}"/>
-    <hyperlink ref="E16" r:id="rId11" xr:uid="{16C22BD9-204C-409D-A9FD-AE557E2EDFA5}"/>
-    <hyperlink ref="E17" r:id="rId12" xr:uid="{0005F9D0-6591-40C8-810A-42F6A85D2A53}"/>
-    <hyperlink ref="E18" r:id="rId13" xr:uid="{95D0A6D4-B772-4ACC-890A-ADC241708F7C}"/>
-    <hyperlink ref="E19" r:id="rId14" xr:uid="{C6B0E5FD-392D-482A-ACC4-16C8D43392DF}"/>
-    <hyperlink ref="E20" r:id="rId15" xr:uid="{89698B0A-4A34-4AAC-A9CB-B74EC5E8BE29}"/>
-    <hyperlink ref="E22" r:id="rId16" xr:uid="{50D68E8D-7562-4373-8D44-091EE315BF93}"/>
-    <hyperlink ref="E23" r:id="rId17" xr:uid="{73776C61-D61F-405B-86D2-8604A962893E}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{EFE24946-3D8A-4D16-94C8-E51E7137A469}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{E50FD1F7-A36D-41E1-BA13-53B1B8A37ED5}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{D23F7A00-BFCD-450E-AB01-82F15EAEA9FD}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{8233C067-EEAF-4668-AF47-1BF847C00C3C}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{F166413B-F7F6-4E31-87F2-E10F35192E3A}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{C9C162EC-8562-4E4D-9CB1-576F8A12A999}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{E6029735-A0BB-43CE-8632-313577FD11D5}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{9A6B2AEF-BBCB-4C88-9045-31DE22383A3E}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{47DBF7FB-3B4A-4BF6-AFA0-5EC3FC6CCE13}"/>
+    <hyperlink ref="E15" r:id="rId10" xr:uid="{16C22BD9-204C-409D-A9FD-AE557E2EDFA5}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{0005F9D0-6591-40C8-810A-42F6A85D2A53}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{95D0A6D4-B772-4ACC-890A-ADC241708F7C}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{C6B0E5FD-392D-482A-ACC4-16C8D43392DF}"/>
+    <hyperlink ref="E19" r:id="rId14" xr:uid="{89698B0A-4A34-4AAC-A9CB-B74EC5E8BE29}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{73776C61-D61F-405B-86D2-8604A962893E}"/>
+    <hyperlink ref="E2" r:id="rId16" xr:uid="{F7849D0D-342C-4B14-9BDD-CC46DC5838D1}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{4D37CC6A-43E4-4019-8A68-4E54FD6AEAA8}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{47B83F2F-6584-4131-ACCB-131EBC085181}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{95F02A6C-ADE3-401C-BACD-7B04E14DD3CD}"/>
+    <hyperlink ref="E26" r:id="rId20" xr:uid="{87272FE3-A12E-4AAF-B72E-222173B9CD85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\leipzig-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8330DA6-5A09-4D47-8383-4F2790D61B96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A419A6-1444-4CD7-8B86-CFAC35541758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -319,7 +319,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -630,8 +634,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,11 +675,11 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>51.202167000000003</v>
-      </c>
-      <c r="C2" s="4">
-        <v>12.222161</v>
+      <c r="B2" s="4">
+        <v>51.339237199999999</v>
+      </c>
+      <c r="C2" s="5">
+        <v>12.3757456</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -694,11 +698,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>51.201996999999999</v>
-      </c>
-      <c r="C3" s="3">
-        <v>12.222785</v>
+      <c r="B3" s="4">
+        <v>51.338879599999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12.3744023</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -717,11 +721,11 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>51.194093000000002</v>
-      </c>
-      <c r="C4" s="3">
-        <v>12.194787</v>
+      <c r="B4" s="4">
+        <v>51.328572600000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>12.331050899999999</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>51</v>
@@ -740,11 +744,11 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>51194779</v>
-      </c>
-      <c r="C5" s="3">
-        <v>12.201489</v>
+      <c r="B5" s="4">
+        <v>51.330156500000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>12.337664800000001</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>47</v>
@@ -763,11 +767,11 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>5120091</v>
-      </c>
-      <c r="C6" s="3">
-        <v>12.202067</v>
+      <c r="B6" s="4">
+        <v>51.3332081</v>
+      </c>
+      <c r="C6" s="6">
+        <v>12.3392631</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>49</v>
@@ -786,11 +790,11 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>51.195771000000001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>12.201846</v>
+      <c r="B7" s="4">
+        <v>51.332988299999997</v>
+      </c>
+      <c r="C7" s="6">
+        <v>12.337859999999999</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -809,11 +813,11 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>51.195843000000004</v>
-      </c>
-      <c r="C8" s="3">
-        <v>12.20213</v>
+      <c r="B8" s="4">
+        <v>51.332929900000003</v>
+      </c>
+      <c r="C8" s="6">
+        <v>12.3397963</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>48</v>
@@ -832,11 +836,11 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>51.19171</v>
-      </c>
-      <c r="C9" s="3">
-        <v>12.223189</v>
+      <c r="B9" s="4">
+        <v>51.317073200000003</v>
+      </c>
+      <c r="C9" s="6">
+        <v>12.3754904</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -855,11 +859,11 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>51.193821</v>
-      </c>
-      <c r="C10" s="3">
-        <v>12.2224</v>
+      <c r="B10" s="4">
+        <v>51.327552400000002</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12.373935700000001</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -878,11 +882,11 @@
       <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B11">
-        <v>51.195889999999999</v>
-      </c>
-      <c r="C11" s="3">
-        <v>12.222624</v>
+      <c r="B11" s="4">
+        <v>51.332919199999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>12.373799099999999</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>52</v>
@@ -901,11 +905,11 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
-        <v>51.202159000000002</v>
-      </c>
-      <c r="C12" s="3">
-        <v>12.212476000000001</v>
+      <c r="B12" s="4">
+        <v>51.339290499999997</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12.3581936</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>53</v>
@@ -924,11 +928,11 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
-        <v>51.202258</v>
-      </c>
-      <c r="C13" s="3">
-        <v>12.215835999999999</v>
+      <c r="B13" s="4">
+        <v>51.339855</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12.3674306</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>54</v>
@@ -947,11 +951,11 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
-        <v>51.202688999999999</v>
-      </c>
-      <c r="C14" s="3">
-        <v>12.222358</v>
+      <c r="B14" s="4">
+        <v>51.340958200000003</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12.373424</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>55</v>
@@ -970,11 +974,11 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
-        <v>51.20411</v>
-      </c>
-      <c r="C15" s="3">
-        <v>12.222419</v>
+      <c r="B15" s="4">
+        <v>51.344570400000002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>12.374700900000001</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>32</v>
@@ -993,11 +997,11 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>51.204341999999997</v>
-      </c>
-      <c r="C16" s="3">
-        <v>12.221363</v>
+      <c r="B16" s="4">
+        <v>51.3451278</v>
+      </c>
+      <c r="C16" s="6">
+        <v>12.3709808</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>68</v>
@@ -1016,11 +1020,11 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>51.204410000000003</v>
-      </c>
-      <c r="C17" s="3">
-        <v>12.221439999999999</v>
+      <c r="B17" s="4">
+        <v>51.344601400000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>12.3710349</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>36</v>
@@ -1039,11 +1043,11 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
-        <v>51.202582</v>
-      </c>
-      <c r="C18" s="3">
-        <v>12.224629999999999</v>
+      <c r="B18" s="4">
+        <v>51.3404673</v>
+      </c>
+      <c r="C18" s="6">
+        <v>12.379617700000001</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -1062,11 +1066,11 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>51.201497000000003</v>
-      </c>
-      <c r="C19" s="3">
-        <v>12.225390000000001</v>
+      <c r="B19" s="4">
+        <v>51.337847600000003</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12.3814378</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -1085,11 +1089,11 @@
       <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20">
-        <v>51.2042</v>
-      </c>
-      <c r="C20" s="3">
-        <v>12.232647</v>
+      <c r="B20" s="4">
+        <v>51.345033000000001</v>
+      </c>
+      <c r="C20" s="6">
+        <v>12.3906513</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>56</v>
@@ -1108,11 +1112,11 @@
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21">
-        <v>51.202001000000003</v>
-      </c>
-      <c r="C21" s="3">
-        <v>12.23372</v>
+      <c r="B21" s="4">
+        <v>51.3390968</v>
+      </c>
+      <c r="C21" s="6">
+        <v>12.393767499999999</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>46</v>
@@ -1131,11 +1135,11 @@
       <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="B22">
-        <v>51.204222999999999</v>
-      </c>
-      <c r="C22" s="3">
-        <v>12.215728</v>
+      <c r="B22" s="4">
+        <v>51.344477099999999</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12.366763000000001</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>58</v>
@@ -1154,11 +1158,11 @@
       <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="B23">
-        <v>51.195722000000004</v>
-      </c>
-      <c r="C23" s="3">
-        <v>12.222416000000001</v>
+      <c r="B23" s="4">
+        <v>51.331298599999997</v>
+      </c>
+      <c r="C23" s="6">
+        <v>12.374067699999999</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>60</v>
@@ -1177,11 +1181,11 @@
       <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="B24">
-        <v>51.195917000000001</v>
-      </c>
-      <c r="C24" s="3">
-        <v>12.214267</v>
+      <c r="B24" s="4">
+        <v>51.333154299999997</v>
+      </c>
+      <c r="C24" s="6">
+        <v>12.3622513</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>62</v>
@@ -1200,11 +1204,11 @@
       <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="B25">
-        <v>51.193671999999999</v>
-      </c>
-      <c r="C25" s="3">
-        <v>12.221743999999999</v>
+      <c r="B25" s="4">
+        <v>51.325598300000003</v>
+      </c>
+      <c r="C25" s="6">
+        <v>12.371049899999999</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>65</v>
@@ -1223,11 +1227,11 @@
       <c r="A26" t="s">
         <v>76</v>
       </c>
-      <c r="B26">
-        <v>51.192393000000003</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12.222356</v>
+      <c r="B26" s="4">
+        <v>51.323686600000002</v>
+      </c>
+      <c r="C26" s="6">
+        <v>12.372990400000001</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>77</v>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\leipzig-map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\leipzig-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A419A6-1444-4CD7-8B86-CFAC35541758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69F34D2-E35F-4D2D-AD94-D5446A238C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Schreberverein</t>
   </si>
   <si>
-    <t>http://www.schreber-leipzig.de/images/Historie/Vereinshaus/Bauzeichnung.jpg</t>
-  </si>
-  <si>
     <t>Odeon</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t xml:space="preserve">Auf dem Gelände der heutigen Dresdner Straße 20 befand sich das 1838 errichtete Gasthaus "Colosseum", das 1863 in "Pantheon" umbenannt wurde. 1848 wurde hier durch Auguste Schmidt der "Verein der Dienstmädchen" als erste Frauen-Berufsorganisation gegründet. Am 23.05.1863 fand hier die Gründung des Allgemeinen Deutschen Arbeitervereins (ADAV) durch Ferdinand Lassalle und Arbeitervertreter aus 12 deutschen Städten statt. Somit zählt der Ort neben dem Goldenen Löwen in Eisenach und dem Tivoli in Gotha zu den drei Gründungsorten der deutschen Sozialdemokratie. Hier traten u. a. August Bebel (1891), Clara Zetkin (1893), Wilhelm Liebknecht (1893) und Karl Liebknecht (1900) als Redner auf, Clara Zetkin sprach hier über "Die Frauen des Proletariats und der Militarismus". Zudem wurde hier 1891 die erste offizielle Leipziger Maifeier initiiert. 1918/19 wurde in dem Gebäude ein Kino eingerichtet (UT Dresdner Straße). 1933 wurde der Versammlungssaal, 1977 auch das Vorderhaus abgerissen. Heute erinnert nur ein 2013 verlegter Gedenkstein an die Bedeutung des Ortes. </t>
   </si>
   <si>
-    <t>Am 28.10.1900 eröffnet (heute Zschocherschen Straße 41a). Eines der anschaulichsten Beispiele für die zahlreichen Warenhäuser des Consum-Vereins, die sich zu Beginn des 20. Jh. über die gesamte Stadt verteilten.</t>
-  </si>
-  <si>
     <t>In diesem um 1860 errichteten Wohnhaus mit Garten wohnte seit 1909 die Familie Zeigner. Nach der Scheidung seiner ersten Ehe zog Erich Zeigner wieder in die Wohnung seiner Eltern, die sich im Erdgeschoss links des Wohnungseingangs befand. Anlässlich seiner Einsetzung als Leipziger Oberbürgermeister 1945 wurde das gesamte Erdgeschoss zu seiner Wohnung um- und ausgebaut. Nach seinem frühen Tod 1949 wurde die originale Wohnungseinrichtung durch seine zweite Ehefrau Annemarie weitestgehend bewahrt. Seine Sekretärin Johanna Landgraf wohnte noch bis zu ihrem Tod 2012 im Haus. Heute wird das Haus durch den Erich-Zeigner-Verein für politische Bildungsveranstaltungen genutzt.</t>
   </si>
   <si>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>privat</t>
+  </si>
+  <si>
+    <t>Am 28.10.1900 eröffnet (heute Zschochersche Straße 41a). Eines der anschaulichsten Beispiele für die zahlreichen Warenhäuser des Consum-Vereins, die sich zu Beginn des 20. Jh. über die gesamte Stadt verteilten.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4e/Deutsches_Kleing%C3%A4rtnermuseum_Leipzig_2011.jpg</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -319,11 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -635,20 +631,20 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="174" style="2" customWidth="1"/>
-    <col min="5" max="5" width="57.88671875" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -668,40 +664,40 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>51.339237199999999</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>12.3757456</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>51.338879599999999</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>12.3744023</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -711,135 +707,135 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>51.328572600000001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>12.331050899999999</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>51.330156500000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>12.337664800000001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>51.3332081</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>12.3392631</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>51.332988299999997</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>12.337859999999999</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>51.332929900000003</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>12.3397963</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>51.317073200000003</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>12.3754904</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -849,20 +845,20 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>51.327552400000002</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>12.373935700000001</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -872,378 +868,378 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="4">
+        <v>61</v>
+      </c>
+      <c r="B11">
         <v>51.332919199999999</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>12.373799099999999</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>51.339290499999997</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>12.3581936</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>51.339855</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12.3674306</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>51.340958200000003</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12.373424</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>51.344570400000002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12.374700900000001</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>51.3451278</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12.3709808</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>51.344601400000002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12.3710349</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>51.3404673</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12.379617700000001</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>51.337847600000003</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12.3814378</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>51.345033000000001</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12.3906513</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
         <v>70</v>
       </c>
-      <c r="G12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4">
-        <v>51.339855</v>
-      </c>
-      <c r="C13" s="6">
-        <v>12.3674306</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>51.3390968</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12.393767499999999</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>51.344477099999999</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12.366763000000001</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
         <v>70</v>
       </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4">
-        <v>51.340958200000003</v>
-      </c>
-      <c r="C14" s="6">
-        <v>12.373424</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4">
-        <v>51.344570400000002</v>
-      </c>
-      <c r="C15" s="6">
-        <v>12.374700900000001</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4">
-        <v>51.3451278</v>
-      </c>
-      <c r="C16" s="6">
-        <v>12.3709808</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>51.331298599999997</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12.374067699999999</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="4">
-        <v>51.344601400000002</v>
-      </c>
-      <c r="C17" s="6">
-        <v>12.3710349</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4">
-        <v>51.3404673</v>
-      </c>
-      <c r="C18" s="6">
-        <v>12.379617700000001</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="4">
-        <v>51.337847600000003</v>
-      </c>
-      <c r="C19" s="6">
-        <v>12.3814378</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4">
-        <v>51.345033000000001</v>
-      </c>
-      <c r="C20" s="6">
-        <v>12.3906513</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>51.333154299999997</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12.3622513</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="4">
-        <v>51.3390968</v>
-      </c>
-      <c r="C21" s="6">
-        <v>12.393767499999999</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="4">
-        <v>51.344477099999999</v>
-      </c>
-      <c r="C22" s="6">
-        <v>12.366763000000001</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="4">
-        <v>51.331298599999997</v>
-      </c>
-      <c r="C23" s="6">
-        <v>12.374067699999999</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25">
+        <v>51.325598300000003</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12.371049899999999</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="4">
-        <v>51.333154299999997</v>
-      </c>
-      <c r="C24" s="6">
-        <v>12.3622513</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="F24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4">
-        <v>51.325598300000003</v>
-      </c>
-      <c r="C25" s="6">
-        <v>12.371049899999999</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="B26">
+        <v>51.323686600000002</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12.372990400000001</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="4">
-        <v>51.323686600000002</v>
-      </c>
-      <c r="C26" s="6">
-        <v>12.372990400000001</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
